--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>土地坐落</t>
   </si>
@@ -191,6 +191,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>中環(上市）</t>
   </si>
   <si>
@@ -201,6 +210,9 @@
   </si>
   <si>
     <t>奇美電（h市）</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1124,13 +1136,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1149,13 +1161,22 @@
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1172,13 +1193,22 @@
       <c r="G2" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1195,13 +1225,22 @@
       <c r="G3" s="2">
         <v>70000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1218,13 +1257,22 @@
       <c r="G4" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1240,6 +1288,15 @@
       </c>
       <c r="G5" s="2">
         <v>20000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
@@ -1257,22 +1314,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1283,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1309,13 +1366,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1335,13 +1392,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1361,13 +1418,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1376,7 +1433,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1387,13 +1444,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1402,7 +1459,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1413,13 +1470,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1439,13 +1496,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1454,7 +1511,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1465,13 +1522,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1480,7 +1537,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1504,19 +1561,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1524,13 +1581,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1539,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1547,22 +1604,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1570,22 +1627,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
   <si>
     <t>土地坐落</t>
   </si>
@@ -191,6 +191,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
   </si>
   <si>
     <t>奇美電（h市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-01</t>
@@ -1136,13 +1142,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1170,13 +1176,16 @@
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1194,21 +1203,24 @@
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1735</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1226,21 +1238,24 @@
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1735</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1258,21 +1273,24 @@
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1735</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1290,12 +1308,15 @@
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1735</v>
       </c>
     </row>
@@ -1314,22 +1335,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1340,13 +1361,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1366,13 +1387,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1392,13 +1413,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1418,13 +1439,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1433,7 +1454,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1444,13 +1465,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1459,7 +1480,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1470,13 +1491,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1496,13 +1517,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1511,7 +1532,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1522,13 +1543,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1537,7 +1558,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1561,19 +1582,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1581,13 +1602,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1596,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1604,22 +1625,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1627,22 +1648,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>土地坐落</t>
   </si>
@@ -194,6 +194,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -203,6 +206,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>中環(上市）</t>
   </si>
   <si>
@@ -218,7 +227,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmp2691</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1142,13 +1157,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1179,13 +1194,22 @@
       <c r="K1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1203,24 +1227,33 @@
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1735</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1238,24 +1271,33 @@
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1735</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -1273,24 +1315,33 @@
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1735</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1308,16 +1359,25 @@
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1735</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1335,22 +1395,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1361,13 +1421,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1387,13 +1447,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1413,13 +1473,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1439,13 +1499,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1454,7 +1514,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1465,13 +1525,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1480,7 +1540,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1491,13 +1551,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1517,13 +1577,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1532,7 +1592,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1543,13 +1603,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1558,7 +1618,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1582,19 +1642,19 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1602,13 +1662,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1617,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1625,22 +1685,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1648,22 +1708,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -21,9 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市信義區吳興段1小段08300000地號</t>
+  </si>
+  <si>
+    <t>臺北市信義區吳興段三小段07990000地號</t>
+  </si>
+  <si>
+    <t>10000分之449</t>
+  </si>
+  <si>
+    <t>10000分之121</t>
+  </si>
+  <si>
+    <t>吳宜臻</t>
+  </si>
+  <si>
+    <t>楊元榮</t>
+  </si>
+  <si>
+    <t>88年10月16日</t>
+  </si>
+  <si>
+    <t>98年12月15闩</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>12700000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmp2691</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,55 +128,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市信義區吳興段1小段 0830-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市信義區吳興段三小段 0799-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 449</t>
-  </si>
-  <si>
-    <t>10000分之 121</t>
-  </si>
-  <si>
-    <t>吳宜臻</t>
-  </si>
-  <si>
-    <t>楊元榮</t>
-  </si>
-  <si>
-    <t>88年10月 16日</t>
-  </si>
-  <si>
-    <t>98年12月 15闩</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>12,700,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市信義區吳興段三小段 01468-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市信義區吳興段三小段 01882-000 建號</t>
+    <t>臺北市信義區吳興段三小段01468000建號</t>
+  </si>
+  <si>
+    <t>臺北市信義區吳興段三小段01882000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>88年08月 10日</t>
-  </si>
-  <si>
-    <t>98年12月 15日</t>
-  </si>
-  <si>
-    <t>12,700’000(房 地總價額）</t>
+    <t>88年08月10日</t>
+  </si>
+  <si>
+    <t>98年12月15日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -107,13 +155,13 @@
     <t>豐田TOYOTA</t>
   </si>
   <si>
-    <t>BMW 523i SEDAN</t>
-  </si>
-  <si>
-    <t>83年06月 13曰</t>
-  </si>
-  <si>
-    <t>98年05月 01 n</t>
+    <t>BMW523iSEDAN</t>
+  </si>
+  <si>
+    <t>83年06月13曰</t>
+  </si>
+  <si>
+    <t>98年05月01n</t>
   </si>
   <si>
     <t>(超過五年）</t>
@@ -128,10 +176,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -143,16 +191,13 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行仁愛分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行玉成分 行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行建國分 行</t>
+    <t>國泰世華商業銀行仁愛分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行玉成分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行建國分行</t>
   </si>
   <si>
     <t>定期存款</t>
@@ -173,12 +218,6 @@
     <t>楊◦霓</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -191,27 +230,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>中環(上市）</t>
   </si>
   <si>
@@ -227,15 +245,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-01</t>
-  </si>
-  <si>
-    <t>tmp2691</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -263,7 +272,7 @@
     <t>歐洲動力巨型</t>
   </si>
   <si>
-    <t>貝萊德新能源基 金A2</t>
+    <t>貝萊德新能源基金A2</t>
   </si>
   <si>
     <t>元大公用能源</t>
@@ -281,7 +290,7 @@
     <t>摩根證券</t>
   </si>
   <si>
-    <t>貝萊德證券投 資信託</t>
+    <t>貝萊德證券投資信託</t>
   </si>
   <si>
     <t>元大投信</t>
@@ -320,10 +329,10 @@
     <t>兆豐國際商業銀行世貿分行</t>
   </si>
   <si>
-    <t>98年12月 16日</t>
-  </si>
-  <si>
-    <t>100年07月 01日</t>
+    <t>98年12月16日</t>
+  </si>
+  <si>
+    <t>100年07月01日</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -688,13 +697,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,56 +725,119 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>24.15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>2608200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>16</v>
       </c>
     </row>
@@ -784,25 +856,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -810,22 +882,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>86.36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>202400</v>
@@ -836,22 +908,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>104.67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>23</v>
@@ -872,22 +944,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -895,22 +967,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>1762</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -918,19 +990,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <v>2497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
@@ -951,16 +1023,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -968,16 +1040,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -995,19 +1067,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1015,16 +1087,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>200000</v>
@@ -1035,16 +1107,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>499424</v>
@@ -1055,16 +1127,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>453908</v>
@@ -1075,16 +1147,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>144522</v>
@@ -1095,16 +1167,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2">
         <v>809749</v>
@@ -1115,16 +1187,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2">
         <v>366838</v>
@@ -1135,16 +1207,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2">
         <v>661096</v>
@@ -1165,43 +1237,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1209,10 +1281,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>2000</v>
@@ -1221,28 +1293,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1735</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>58</v>
@@ -1253,10 +1325,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
         <v>7000</v>
@@ -1265,28 +1337,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1735</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>59</v>
@@ -1297,10 +1369,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>6000</v>
@@ -1309,28 +1381,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1735</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>60</v>
@@ -1341,10 +1413,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>2000</v>
@@ -1353,28 +1425,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2">
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1735</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>61</v>
@@ -1395,25 +1467,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1421,13 +1493,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1436,7 +1508,7 @@
         <v>20.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>399671</v>
@@ -1447,13 +1519,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1462,7 +1534,7 @@
         <v>7.05</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2">
         <v>211500</v>
@@ -1473,13 +1545,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1488,7 +1560,7 @@
         <v>8.08</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2">
         <v>161600</v>
@@ -1499,13 +1571,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1514,7 +1586,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1525,13 +1597,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1540,7 +1612,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1551,13 +1623,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1566,7 +1638,7 @@
         <v>7.34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2">
         <v>146800</v>
@@ -1577,13 +1649,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1592,7 +1664,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1603,13 +1675,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1618,7 +1690,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1639,22 +1711,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1662,22 +1734,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1685,22 +1757,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1708,22 +1780,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -128,19 +128,22 @@
     <t>98年12月15日</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>豐田TOYOTA</t>
   </si>
   <si>
+    <t>BMW523iSEDAN</t>
+  </si>
+  <si>
     <t>83年06月13曰</t>
   </si>
   <si>
+    <t>98年05月01n</t>
+  </si>
+  <si>
     <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>BMW523iSEDAN</t>
-  </si>
-  <si>
-    <t>98年05月01n</t>
   </si>
   <si>
     <t>幣別</t>
@@ -966,38 +969,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>1762</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1762</v>
@@ -1006,21 +1030,42 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>2497</v>
@@ -1036,6 +1081,27 @@
       </c>
       <c r="G3" s="2">
         <v>2200000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1053,16 +1119,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1070,16 +1136,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1097,13 +1163,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1117,13 +1183,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1137,13 +1203,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1157,13 +1223,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1177,13 +1243,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1197,16 +1263,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>809749</v>
@@ -1217,16 +1283,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>366838</v>
@@ -1237,16 +1303,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2">
         <v>661096</v>
@@ -1273,13 +1339,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1311,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1323,13 +1389,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1355,7 +1421,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1367,13 +1433,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1399,7 +1465,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1411,13 +1477,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1443,7 +1509,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1455,13 +1521,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1497,13 +1563,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>19505.7</v>
@@ -1512,7 +1578,7 @@
         <v>20.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1">
         <v>399671</v>
@@ -1523,13 +1589,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1538,7 +1604,7 @@
         <v>20.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2">
         <v>399671</v>
@@ -1549,13 +1615,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1564,7 +1630,7 @@
         <v>7.05</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2">
         <v>211500</v>
@@ -1575,13 +1641,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1590,7 +1656,7 @@
         <v>8.08</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2">
         <v>161600</v>
@@ -1601,13 +1667,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1616,7 +1682,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1627,13 +1693,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1642,7 +1708,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1653,13 +1719,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1668,7 +1734,7 @@
         <v>7.34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2">
         <v>146800</v>
@@ -1679,13 +1745,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1694,7 +1760,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1705,13 +1771,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1720,7 +1786,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1741,13 +1807,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
@@ -1756,7 +1822,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1764,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1779,7 +1845,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1787,22 +1853,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1810,22 +1876,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -10,18 +10,17 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -128,6 +127,9 @@
     <t>98年12月15日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -146,16 +148,7 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>國泰世華商業銀行仁愛分行</t>
@@ -882,7 +875,7 @@
         <v>202400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -935,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -980,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1021,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1762</v>
@@ -1030,16 +1023,16 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1065,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>2497</v>
@@ -1074,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
@@ -1083,7 +1076,7 @@
         <v>2200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1110,50 +1103,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1163,13 +1112,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1183,13 +1132,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1203,13 +1152,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1223,13 +1172,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1243,13 +1192,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1263,16 +1212,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="2">
         <v>809749</v>
@@ -1283,16 +1232,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="2">
         <v>366838</v>
@@ -1303,16 +1252,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2">
         <v>661096</v>
@@ -1323,7 +1272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -1339,13 +1288,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1377,7 +1326,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1389,13 +1338,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1421,7 +1370,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1433,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2">
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1465,7 +1414,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1477,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2">
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1509,7 +1458,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1521,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2">
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1553,7 +1502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -1563,13 +1512,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>19505.7</v>
@@ -1578,7 +1527,7 @@
         <v>20.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1">
         <v>399671</v>
@@ -1589,13 +1538,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1604,7 +1553,7 @@
         <v>20.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2">
         <v>399671</v>
@@ -1615,13 +1564,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1630,7 +1579,7 @@
         <v>7.05</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2">
         <v>211500</v>
@@ -1641,13 +1590,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1656,7 +1605,7 @@
         <v>8.08</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2">
         <v>161600</v>
@@ -1667,13 +1616,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1682,7 +1631,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1693,13 +1642,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1708,7 +1657,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1719,13 +1668,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1734,7 +1683,7 @@
         <v>7.34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2">
         <v>146800</v>
@@ -1745,13 +1694,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1760,7 +1709,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1771,13 +1720,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1786,7 +1735,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1797,7 +1746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1807,13 +1756,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
@@ -1822,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1830,13 +1779,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1845,7 +1794,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1853,22 +1802,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1876,22 +1825,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -151,40 +151,49 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>國泰世華商業銀行仁愛分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行玉成分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行建國分行</t>
+  </si>
+  <si>
     <t>定期存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行玉成分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行建國分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
     <t>楊〇翰</t>
   </si>
   <si>
     <t>楊◦霓</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>中環(上市）</t>
@@ -1104,13 +1113,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1121,24 +1130,45 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1146,19 +1176,40 @@
       <c r="F2" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1166,19 +1217,40 @@
       <c r="F3" s="2">
         <v>499424</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1186,19 +1258,40 @@
       <c r="F4" s="2">
         <v>453908</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1206,65 +1299,149 @@
       <c r="F5" s="2">
         <v>144522</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2">
         <v>809749</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2">
         <v>366838</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2">
         <v>661096</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1288,13 +1465,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1326,7 +1503,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -1338,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>20000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1370,7 +1547,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -1382,13 +1559,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>70000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1414,7 +1591,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -1426,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
         <v>60000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1458,7 +1635,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -1470,13 +1647,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
         <v>20000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
@@ -1512,13 +1689,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>19505.7</v>
@@ -1527,7 +1704,7 @@
         <v>20.49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1">
         <v>399671</v>
@@ -1538,13 +1715,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1553,7 +1730,7 @@
         <v>20.49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>399671</v>
@@ -1564,13 +1741,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1579,7 +1756,7 @@
         <v>7.05</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>211500</v>
@@ -1590,13 +1767,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1605,7 +1782,7 @@
         <v>8.08</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2">
         <v>161600</v>
@@ -1616,13 +1793,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1631,7 +1808,7 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
@@ -1642,13 +1819,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1657,7 +1834,7 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
@@ -1668,13 +1845,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1683,7 +1860,7 @@
         <v>7.34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>146800</v>
@@ -1694,13 +1871,13 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1709,7 +1886,7 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
@@ -1720,13 +1897,13 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1735,7 +1912,7 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
@@ -1756,13 +1933,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
@@ -1771,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1779,13 +1956,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1794,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1802,22 +1979,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1825,22 +2002,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -211,33 +211,36 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>JF龍揚</t>
   </si>
   <si>
+    <t>JF絕對曰本</t>
+  </si>
+  <si>
+    <t>JF綜橫台商</t>
+  </si>
+  <si>
+    <t>歐洲動力巨型</t>
+  </si>
+  <si>
+    <t>貝萊德新能源基金A2</t>
+  </si>
+  <si>
+    <t>元大公用能源</t>
+  </si>
+  <si>
+    <t>景順全歐洲</t>
+  </si>
+  <si>
+    <t>景順泛歐洲</t>
+  </si>
+  <si>
     <t>摩根投信</t>
   </si>
   <si>
-    <t>JF絕對曰本</t>
-  </si>
-  <si>
-    <t>JF綜橫台商</t>
-  </si>
-  <si>
-    <t>歐洲動力巨型</t>
-  </si>
-  <si>
-    <t>貝萊德新能源基金A2</t>
-  </si>
-  <si>
-    <t>元大公用能源</t>
-  </si>
-  <si>
-    <t>景順全歐洲</t>
-  </si>
-  <si>
-    <t>景順泛歐洲</t>
-  </si>
-  <si>
     <t>摩根證券</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
   </si>
   <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -1681,47 +1687,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1">
-        <v>19505.7</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20.49</v>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1">
-        <v>399671</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>19505.7</v>
@@ -1735,8 +1762,29 @@
       <c r="H2" s="2">
         <v>399671</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>72</v>
       </c>
@@ -1747,7 +1795,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>30000</v>
@@ -1761,8 +1809,29 @@
       <c r="H3" s="2">
         <v>211500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>73</v>
       </c>
@@ -1773,7 +1842,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>20000</v>
@@ -1787,8 +1856,29 @@
       <c r="H4" s="2">
         <v>161600</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>74</v>
       </c>
@@ -1799,7 +1889,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>204.384</v>
@@ -1808,13 +1898,34 @@
         <v>7.45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2">
         <v>59159</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>76</v>
       </c>
@@ -1825,7 +1936,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2">
         <v>191.75</v>
@@ -1834,13 +1945,34 @@
         <v>6.67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2">
         <v>37691</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>77</v>
       </c>
@@ -1851,7 +1983,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
         <v>20000</v>
@@ -1865,8 +1997,29 @@
       <c r="H7" s="2">
         <v>146800</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>78</v>
       </c>
@@ -1877,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>187.12</v>
@@ -1886,13 +2039,34 @@
         <v>11.28</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2">
         <v>88903</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>79</v>
       </c>
@@ -1903,7 +2077,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>246.43</v>
@@ -1912,10 +2086,31 @@
         <v>10.79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2">
         <v>111996</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1735</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1933,13 +2128,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>3000000</v>
@@ -1948,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1956,13 +2151,13 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -1971,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1979,22 +2174,22 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2002,22 +2197,22 @@
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -262,25 +262,34 @@
     <t>fund</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>國泰人壽保險股份有限公司</t>
   </si>
   <si>
+    <t>兆豐國際商業銀行世貿分行</t>
+  </si>
+  <si>
+    <t>98年12月16日</t>
+  </si>
+  <si>
+    <t>100年07月01日</t>
+  </si>
+  <si>
     <t>購置房屋</t>
   </si>
   <si>
-    <t>兆豐國際商業銀行世貿分行</t>
-  </si>
-  <si>
-    <t>98年12月16日</t>
-  </si>
-  <si>
-    <t>100年07月01日</t>
-  </si>
-  <si>
     <t>房屋修繕</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2120,44 +2129,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>3000000</v>
@@ -2166,53 +2196,116 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>8900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
+++ b/legislator/property/output/normal/吳宜臻_2012-02-01_財產申報表_tmp2691.xlsx
@@ -14,13 +14,14 @@
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
     <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -290,6 +291,27 @@
   </si>
   <si>
     <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>志遠法律事務所</t>
+  </si>
+  <si>
+    <t>臺北市大安區仁愛路三段98號4樓</t>
+  </si>
+  <si>
+    <t>100年05月30日</t>
+  </si>
+  <si>
+    <t>個人投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2311,4 +2333,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>